--- a/Hungry Kya.xlsx
+++ b/Hungry Kya.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ShailendraJain\ShailendraJain\Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komal Prajapati\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD6A0E5-D69D-4E85-A5E7-130CEB9980E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D6E9B4-63A2-4CE9-A59B-DC072781E47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="178">
   <si>
     <t>TM Name</t>
   </si>
@@ -816,6 +816,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1290,34 +1296,34 @@
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="7" width="9.1796875" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" customWidth="1"/>
+    <col min="12" max="12" width="5.453125" customWidth="1"/>
+    <col min="13" max="14" width="10.81640625" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="5.81640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="12.5703125" style="5" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="5"/>
-    <col min="26" max="26" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="12.54296875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="9.1796875" style="5"/>
+    <col min="26" max="26" width="12.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
@@ -2616,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
@@ -2654,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>41</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2835,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2884,16 +2890,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
@@ -2963,7 +2969,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
@@ -3019,7 +3025,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -3060,23 +3066,23 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>56</v>
       </c>
@@ -3107,7 +3113,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="3"/>
@@ -3130,7 +3136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -3236,7 +3242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
@@ -3368,7 +3374,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -3390,7 +3396,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>71</v>
       </c>
@@ -3412,7 +3418,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>72</v>
       </c>
@@ -3434,7 +3440,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
@@ -3456,7 +3462,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -3478,7 +3484,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -3500,7 +3506,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -3525,7 +3531,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3545,7 +3551,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>71</v>
       </c>
@@ -3565,7 +3571,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -3585,7 +3591,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -3605,9 +3611,13 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -3617,7 +3627,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>175</v>
@@ -3631,7 +3641,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14">
@@ -3658,7 +3668,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>81</v>
@@ -3674,7 +3684,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>80</v>
@@ -3690,7 +3700,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>83</v>
@@ -3707,7 +3717,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>82</v>
@@ -3738,16 +3748,16 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>146</v>
       </c>
@@ -3764,7 +3774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>157</v>
       </c>
@@ -3781,7 +3791,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>160</v>
       </c>
@@ -3798,7 +3808,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>162</v>
       </c>
@@ -3815,7 +3825,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>147</v>
       </c>
@@ -3832,7 +3842,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>153</v>
       </c>
@@ -3849,49 +3859,49 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
@@ -3909,7 +3919,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3923,16 +3933,16 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3944,7 +3954,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3956,7 +3966,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -3968,7 +3978,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
@@ -3980,7 +3990,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -3998,7 +4008,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -4016,7 +4026,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -4034,7 +4044,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>61</v>
       </c>
@@ -4052,7 +4062,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -4070,7 +4080,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -4083,7 +4093,7 @@
       <c r="D10" s="2"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -4096,7 +4106,7 @@
       <c r="D11" s="2"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -4109,7 +4119,7 @@
       <c r="D12" s="2"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -4121,7 +4131,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -4133,7 +4143,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -4145,7 +4155,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>87</v>
       </c>
@@ -4157,7 +4167,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -4169,7 +4179,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -4181,7 +4191,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>88</v>
       </c>
@@ -4193,19 +4203,19 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -4233,14 +4243,14 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>94</v>
       </c>
@@ -4257,7 +4267,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>93</v>
       </c>
@@ -4274,7 +4284,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>96</v>
@@ -4289,7 +4299,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>97</v>
@@ -4305,7 +4315,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>125</v>
@@ -4321,7 +4331,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>98</v>
@@ -4337,7 +4347,7 @@
         <v>10667</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>99</v>
@@ -4353,7 +4363,7 @@
         <v>5333.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>100</v>
       </c>
@@ -4371,7 +4381,7 @@
         <v>896.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>102</v>
@@ -4386,7 +4396,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>103</v>
@@ -4402,7 +4412,7 @@
         <v>1396.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>104</v>
@@ -4411,7 +4421,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>121</v>
@@ -4420,7 +4430,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>122</v>
@@ -4429,7 +4439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>105</v>
@@ -4438,7 +4448,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>106</v>
@@ -4447,7 +4457,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>107</v>
@@ -4456,7 +4466,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>131</v>
@@ -4465,7 +4475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>108</v>
@@ -4474,7 +4484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>123</v>
@@ -4483,7 +4493,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>109</v>
@@ -4492,7 +4502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>114</v>
       </c>
@@ -4503,7 +4513,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>133</v>
@@ -4512,7 +4522,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>137</v>
@@ -4521,7 +4531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>134</v>
@@ -4530,7 +4540,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>111</v>
@@ -4539,7 +4549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>132</v>
@@ -4548,7 +4558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>110</v>
@@ -4557,7 +4567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>112</v>
@@ -4566,7 +4576,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>117</v>
@@ -4575,7 +4585,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>119</v>
@@ -4584,7 +4594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
@@ -4593,7 +4603,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>115</v>
@@ -4602,7 +4612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>116</v>
@@ -4611,7 +4621,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
         <v>120</v>

--- a/Hungry Kya.xlsx
+++ b/Hungry Kya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komal Prajapati\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D6E9B4-63A2-4CE9-A59B-DC072781E47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F384481-E590-42EC-8DC3-DFA1F5E35092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Hungry Kya.xlsx
+++ b/Hungry Kya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komal Prajapati\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F384481-E590-42EC-8DC3-DFA1F5E35092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4681D6EC-7878-418E-B2E8-3B158B5EBB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="179">
   <si>
     <t>TM Name</t>
   </si>
@@ -815,13 +815,16 @@
     <t>Not in tricolour</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Github</t>
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Gitbash</t>
+  </si>
+  <si>
+    <t>Testdemo</t>
   </si>
 </sst>
 </file>
@@ -3066,7 +3069,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3613,10 +3616,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3628,9 +3631,11 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>

--- a/Hungry Kya.xlsx
+++ b/Hungry Kya.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komal Prajapati\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ShailendraJain\ShailendraJain\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4681D6EC-7878-418E-B2E8-3B158B5EBB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD6A0E5-D69D-4E85-A5E7-130CEB9980E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="176">
   <si>
     <t>TM Name</t>
   </si>
@@ -815,16 +815,7 @@
     <t>Not in tricolour</t>
   </si>
   <si>
-    <t>Github</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Gitbash</t>
-  </si>
-  <si>
-    <t>Testdemo</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1299,34 +1290,34 @@
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="7" width="9.1796875" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" customWidth="1"/>
-    <col min="12" max="12" width="5.453125" customWidth="1"/>
-    <col min="13" max="14" width="10.81640625" customWidth="1"/>
-    <col min="15" max="15" width="16.453125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="5.81640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" customWidth="1"/>
+    <col min="13" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="12.54296875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="9.1796875" style="5"/>
-    <col min="26" max="26" width="12.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="12.5703125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="5"/>
+    <col min="26" max="26" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1483,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1546,7 +1537,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1586,7 +1577,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1629,7 +1620,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1678,7 +1669,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1724,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -1773,7 +1764,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1818,7 +1809,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -1858,7 +1849,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -1898,7 +1889,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1969,7 +1960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -2020,7 +2011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -2071,7 +2062,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -2130,7 +2121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2185,7 +2176,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2236,7 +2227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -2289,7 +2280,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -2336,7 +2327,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -2397,7 +2388,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2438,7 +2429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
@@ -2537,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -2585,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
@@ -2625,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
@@ -2663,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>41</v>
       </c>
@@ -2701,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
@@ -2739,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
@@ -2776,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
@@ -2813,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2844,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2893,16 +2884,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +2913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2944,7 +2935,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2958,7 +2949,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
@@ -2972,7 +2963,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -2986,7 +2977,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -3000,7 +2991,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
@@ -3014,7 +3005,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
@@ -3028,7 +3019,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -3042,7 +3033,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -3069,23 +3060,23 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>56</v>
       </c>
@@ -3116,7 +3107,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="3"/>
@@ -3139,7 +3130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3167,7 +3158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -3192,7 +3183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -3217,7 +3208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -3245,7 +3236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
@@ -3273,7 +3264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
@@ -3301,7 +3292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3329,7 +3320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -3355,7 +3346,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
@@ -3377,7 +3368,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -3399,7 +3390,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>71</v>
       </c>
@@ -3421,7 +3412,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>72</v>
       </c>
@@ -3443,7 +3434,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
@@ -3465,7 +3456,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -3487,7 +3478,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -3509,7 +3500,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -3534,7 +3525,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3554,7 +3545,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>71</v>
       </c>
@@ -3574,7 +3565,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -3594,7 +3585,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -3614,13 +3605,9 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>176</v>
-      </c>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -3630,12 +3617,10 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>177</v>
-      </c>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3646,7 +3631,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14">
@@ -3673,7 +3658,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>81</v>
@@ -3689,7 +3674,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>80</v>
@@ -3705,7 +3690,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>83</v>
@@ -3722,7 +3707,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>82</v>
@@ -3753,16 +3738,16 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>146</v>
       </c>
@@ -3779,7 +3764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>157</v>
       </c>
@@ -3796,7 +3781,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>160</v>
       </c>
@@ -3813,7 +3798,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>162</v>
       </c>
@@ -3830,7 +3815,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>147</v>
       </c>
@@ -3847,7 +3832,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>153</v>
       </c>
@@ -3864,49 +3849,49 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
@@ -3924,7 +3909,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3938,16 +3923,16 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +3944,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3971,7 +3956,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -3983,7 +3968,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
@@ -3995,7 +3980,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -4013,7 +3998,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -4031,7 +4016,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -4049,7 +4034,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>61</v>
       </c>
@@ -4067,7 +4052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -4085,7 +4070,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -4098,7 +4083,7 @@
       <c r="D10" s="2"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -4111,7 +4096,7 @@
       <c r="D11" s="2"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -4124,7 +4109,7 @@
       <c r="D12" s="2"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -4136,7 +4121,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -4148,7 +4133,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -4160,7 +4145,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>87</v>
       </c>
@@ -4172,7 +4157,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -4184,7 +4169,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -4196,7 +4181,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>88</v>
       </c>
@@ -4208,19 +4193,19 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -4248,14 +4233,14 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>94</v>
       </c>
@@ -4272,7 +4257,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>93</v>
       </c>
@@ -4289,7 +4274,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>96</v>
@@ -4304,7 +4289,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>97</v>
@@ -4320,7 +4305,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>125</v>
@@ -4336,7 +4321,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>98</v>
@@ -4352,7 +4337,7 @@
         <v>10667</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>99</v>
@@ -4368,7 +4353,7 @@
         <v>5333.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>100</v>
       </c>
@@ -4386,7 +4371,7 @@
         <v>896.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>102</v>
@@ -4401,7 +4386,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>103</v>
@@ -4417,7 +4402,7 @@
         <v>1396.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>104</v>
@@ -4426,7 +4411,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>121</v>
@@ -4435,7 +4420,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>122</v>
@@ -4444,7 +4429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>105</v>
@@ -4453,7 +4438,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>106</v>
@@ -4462,7 +4447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>107</v>
@@ -4471,7 +4456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>131</v>
@@ -4480,7 +4465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>108</v>
@@ -4489,7 +4474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>123</v>
@@ -4498,7 +4483,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>109</v>
@@ -4507,7 +4492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>114</v>
       </c>
@@ -4518,7 +4503,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>133</v>
@@ -4527,7 +4512,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>137</v>
@@ -4536,7 +4521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>134</v>
@@ -4545,7 +4530,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>111</v>
@@ -4554,7 +4539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>132</v>
@@ -4563,7 +4548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>110</v>
@@ -4572,7 +4557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>112</v>
@@ -4581,7 +4566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>117</v>
@@ -4590,7 +4575,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>119</v>
@@ -4599,7 +4584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>113</v>
@@ -4608,7 +4593,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>115</v>
@@ -4617,7 +4602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>116</v>
@@ -4626,7 +4611,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
         <v>120</v>
